--- a/ase.2024.simulink/model/config.xlsx
+++ b/ase.2024.simulink/model/config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\WangMingcheng\Desktop\ase.2024.simulink\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitYang\DIGILENT.simulink-case\ase.2024.simulink\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E30115DD-6EAF-4404-A557-AFCB9816D2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7916F-40D6-442A-805A-167597A2DEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="4395" windowWidth="22515" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,18 +89,6 @@
   </si>
   <si>
     <t>Source</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.01k</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5.1k</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -211,12 +199,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -231,13 +231,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -521,7 +526,7 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -557,12 +562,12 @@
         <v>5</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="4">
         <v>0.1</v>
@@ -573,7 +578,7 @@
       <c r="D2" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="10">
         <v>1E-4</v>
       </c>
       <c r="F2" s="4">
@@ -585,13 +590,10 @@
       <c r="H2">
         <v>10000</v>
       </c>
-      <c r="I2">
-        <v>10000</v>
-      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="4">
         <v>0.1</v>
@@ -602,7 +604,7 @@
       <c r="D3" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="10">
         <v>1E-4</v>
       </c>
       <c r="F3" s="4">
@@ -614,13 +616,10 @@
       <c r="H3">
         <v>10000</v>
       </c>
-      <c r="I3">
-        <v>10000</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" s="4">
         <v>0.1</v>
@@ -631,8 +630,8 @@
       <c r="D4" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="4">
-        <v>1E-4</v>
+      <c r="E4" s="10">
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="F4" s="4">
         <v>0</v>
@@ -643,27 +642,24 @@
       <c r="H4">
         <v>10</v>
       </c>
-      <c r="I4">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="A5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8">
         <v>0.1</v>
       </c>
-      <c r="C5" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D5" s="8">
         <v>1E-3</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="8">
         <v>0</v>
       </c>
       <c r="G5" t="s">
@@ -672,27 +668,25 @@
       <c r="H5">
         <v>10000</v>
       </c>
-      <c r="I5">
-        <v>10000</v>
-      </c>
+      <c r="I5"/>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8">
         <v>0.1</v>
       </c>
-      <c r="C6" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D6" s="4">
+      <c r="C6" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D6" s="8">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="8">
         <v>0</v>
       </c>
       <c r="G6" t="s">
@@ -701,67 +695,61 @@
       <c r="H6">
         <v>5100</v>
       </c>
-      <c r="I6">
-        <v>5100</v>
-      </c>
+      <c r="I6"/>
     </row>
     <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8">
         <v>0.1</v>
       </c>
-      <c r="C7" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="C7" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D7" s="8">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H7">
         <v>1000000</v>
       </c>
-      <c r="I7">
-        <v>1000000</v>
-      </c>
+      <c r="I7"/>
     </row>
     <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="A8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8">
         <v>0.1</v>
       </c>
-      <c r="C8" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D8" s="4">
+      <c r="C8" s="8">
+        <v>0.01</v>
+      </c>
+      <c r="D8" s="8">
         <v>1E-3</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
+      <c r="I8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
@@ -776,7 +764,7 @@
       <c r="D9" s="4">
         <v>2E-3</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="10">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F9" s="4">
@@ -786,9 +774,6 @@
         <v>12</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
         <v>3.3</v>
       </c>
     </row>
@@ -805,7 +790,7 @@
       <c r="D10" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F10" s="4">
@@ -815,15 +800,13 @@
         <v>13</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
         <v>1</v>
       </c>
+      <c r="I10"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11" s="4">
         <v>5.0000000000000001E-3</v>
@@ -834,25 +817,22 @@
       <c r="D11" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" s="4">
         <v>5.0000000000000001E-3</v>
@@ -863,79 +843,72 @@
       <c r="D12" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="10">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F12" s="4">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C13" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="4">
+        <v>5.0000000000000002E-5</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1E-3</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="4">
-        <v>5.0000000000000002E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>0.01</v>
-      </c>
-      <c r="D14" s="4">
-        <v>1E-3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>1E-4</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>35</v>
-      </c>
       <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="4">
         <v>1.0000000000000001E-5</v>
       </c>
+      <c r="I14" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -948,7 +921,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -978,157 +951,163 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2">
+        <v>22</v>
+      </c>
+      <c r="B2" s="6">
         <v>0.01</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>1.86</v>
       </c>
       <c r="E2">
-        <v>60</v>
+        <v>125.2</v>
       </c>
       <c r="F2">
-        <v>100000</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
+        <v>1000</v>
+      </c>
+      <c r="G2">
+        <v>10000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3">
+        <v>23</v>
+      </c>
+      <c r="B3" s="6">
         <v>0.01</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>1.86</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>125.2</v>
       </c>
       <c r="F3">
-        <v>100000</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
+        <v>1000</v>
+      </c>
+      <c r="G3">
+        <v>10000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
+        <v>24</v>
+      </c>
+      <c r="B4" s="6">
         <v>0.01</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="D4">
+        <v>3.01</v>
+      </c>
+      <c r="E4">
+        <v>50.4</v>
+      </c>
+      <c r="F4">
+        <v>1000</v>
+      </c>
+      <c r="G4">
         <v>10</v>
-      </c>
-      <c r="E4">
-        <v>120</v>
-      </c>
-      <c r="F4">
-        <v>100000</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="B5" s="6">
         <v>0.01</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>1.86</v>
       </c>
       <c r="E5">
-        <v>60</v>
+        <v>125.2</v>
       </c>
       <c r="F5">
-        <v>100000</v>
-      </c>
-      <c r="G5" t="s">
-        <v>16</v>
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>10000</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6">
         <v>0.01</v>
       </c>
       <c r="C6">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="E6">
-        <v>30</v>
+        <v>89.8</v>
       </c>
       <c r="F6">
-        <v>100000</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>5100</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7">
+        <v>27</v>
+      </c>
+      <c r="B7" s="6">
         <v>0.01</v>
       </c>
       <c r="C7">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>30</v>
+        <v>2.21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>100.1</v>
       </c>
       <c r="F7">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>1000000</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6">
         <v>0.01</v>
       </c>
       <c r="C8">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>30</v>
+        <v>9.18</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1276.4000000000001</v>
       </c>
       <c r="F8">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1136,19 +1115,22 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.4</v>
+        <v>41.6</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>79.2</v>
       </c>
       <c r="D9">
-        <v>4</v>
+        <v>137.9</v>
       </c>
       <c r="E9">
-        <v>40</v>
+        <v>204.5</v>
       </c>
       <c r="F9">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>3.3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1156,99 +1138,114 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.5</v>
+        <v>52.2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>134.1</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>158.6</v>
       </c>
       <c r="E10">
-        <v>15</v>
+        <v>196.2</v>
       </c>
       <c r="F10">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.5</v>
+        <v>52.2</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>134.1</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>158.6</v>
       </c>
       <c r="E11">
-        <v>15</v>
+        <v>196.2</v>
       </c>
       <c r="F11">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12">
-        <v>0.5</v>
+        <v>52.2</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>134.1</v>
       </c>
       <c r="D12">
-        <v>5</v>
+        <v>158.6</v>
       </c>
       <c r="E12">
-        <v>15</v>
+        <v>196.2</v>
       </c>
       <c r="F12">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>0.5</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>5</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
+        <v>29</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C13" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>306</v>
+      </c>
+      <c r="E13" s="6">
+        <v>796</v>
       </c>
       <c r="F13">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>5.0000000000000002E-5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B14">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="D14">
-        <v>5</v>
-      </c>
-      <c r="E14">
-        <v>15</v>
+        <v>237</v>
+      </c>
+      <c r="E14" s="6">
+        <v>585</v>
       </c>
       <c r="F14">
-        <v>100000</v>
+        <v>1000</v>
+      </c>
+      <c r="G14">
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
   </sheetData>

--- a/ase.2024.simulink/model/config.xlsx
+++ b/ase.2024.simulink/model/config.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitYang\DIGILENT.simulink-case\ase.2024.simulink\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB7916F-40D6-442A-805A-167597A2DEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE27DF1-9079-4FAA-B399-F03F14F7421F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Component" sheetId="1" r:id="rId1"/>
     <sheet name="Cost" sheetId="2" r:id="rId2"/>
+    <sheet name="Temperature_Coefficient" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +158,70 @@
   </si>
   <si>
     <t>Op-Amp2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：温度系数即温漂，单位为ppm/℃，即10^-6V/℃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注：部分元器件产品价格较低，为了能展示明显，取十个的购买价格进行计算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant37</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Constant18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -164,9 +229,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
     <numFmt numFmtId="177" formatCode="0.00000_);[Red]\(0.00000\)"/>
+    <numFmt numFmtId="178" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -199,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,18 +274,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -227,22 +287,201 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -523,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="J6" activeCellId="1" sqref="I1:I1048576 J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -535,11 +774,12 @@
     <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
     <col min="4" max="4" width="9" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9" style="3"/>
+    <col min="5" max="5" width="9" style="19"/>
+    <col min="6" max="6" width="9" style="3"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -552,7 +792,7 @@
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="19" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -565,7 +805,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -578,7 +818,7 @@
       <c r="D2" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="8">
         <v>1E-4</v>
       </c>
       <c r="F2" s="4">
@@ -591,7 +831,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -604,7 +844,7 @@
       <c r="D3" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="14">
         <v>1E-4</v>
       </c>
       <c r="F3" s="4">
@@ -617,34 +857,34 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="22">
         <v>0.1</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="22">
         <v>0.01</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="22">
         <v>1E-3</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="F4" s="22">
+        <v>0</v>
+      </c>
+      <c r="G4" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="23">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+    <row r="5" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B5" s="8">
@@ -662,16 +902,15 @@
       <c r="F5" s="8">
         <v>0</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="15">
         <v>10000</v>
       </c>
-      <c r="I5"/>
-    </row>
-    <row r="6" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+    </row>
+    <row r="6" spans="1:8" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
         <v>26</v>
       </c>
       <c r="B6" s="8">
@@ -689,31 +928,30 @@
       <c r="F6" s="8">
         <v>0</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="15">
         <v>5100</v>
       </c>
-      <c r="I6"/>
-    </row>
-    <row r="7" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+    </row>
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="4">
         <v>0.1</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="4">
         <v>0.01</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="4">
         <v>1E-3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="9">
         <v>1E-4</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="4">
         <v>0</v>
       </c>
       <c r="G7" t="s">
@@ -722,25 +960,24 @@
       <c r="H7">
         <v>1000000</v>
       </c>
-      <c r="I7"/>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="4">
         <v>0.1</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="4">
         <v>0.01</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="4">
         <v>1E-3</v>
       </c>
       <c r="E8" s="8">
         <v>1E-4</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="4">
         <v>0</v>
       </c>
       <c r="G8" t="s">
@@ -749,9 +986,8 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
@@ -764,7 +1000,7 @@
       <c r="D9" s="4">
         <v>2E-3</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F9" s="4">
@@ -777,7 +1013,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -790,7 +1026,7 @@
       <c r="D10" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F10" s="4">
@@ -802,9 +1038,8 @@
       <c r="H10">
         <v>1</v>
       </c>
-      <c r="I10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
@@ -817,7 +1052,7 @@
       <c r="D11" s="4">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="14">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F11" s="4">
@@ -830,34 +1065,34 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="22">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="22">
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="22">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
+    <row r="13" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="8">
@@ -875,16 +1110,15 @@
       <c r="F13" s="8">
         <v>0</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="8">
         <v>5.0000000000000002E-5</v>
       </c>
-      <c r="I13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="9" t="s">
+    </row>
+    <row r="14" spans="1:8" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B14" s="8">
@@ -902,13 +1136,15 @@
       <c r="F14" s="8">
         <v>0</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="8">
         <v>1.0000000000000001E-5</v>
       </c>
-      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E15" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -918,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55B9CCDB-92CC-45E5-8A86-79BFADE6C1E7}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -929,40 +1165,40 @@
     <col min="1" max="1" width="16.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="23" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="15">
         <v>0.01</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="23">
         <v>0.12</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="23">
         <v>1.86</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="23">
         <v>125.2</v>
       </c>
       <c r="F2">
@@ -971,21 +1207,24 @@
       <c r="G2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="15">
         <v>0.01</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="23">
         <v>0.12</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="23">
         <v>1.86</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="23">
         <v>125.2</v>
       </c>
       <c r="F3">
@@ -995,20 +1234,20 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="15">
         <v>0.01</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="23">
         <v>0.1</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="23">
         <v>3.01</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="23">
         <v>50.4</v>
       </c>
       <c r="F4">
@@ -1018,20 +1257,20 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="15">
         <v>0.01</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="23">
         <v>0.12</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="23">
         <v>1.86</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="23">
         <v>125.2</v>
       </c>
       <c r="F5">
@@ -1041,20 +1280,20 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="15">
         <v>0.01</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="23">
         <v>0.11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="23">
         <v>2.0299999999999998</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="23">
         <v>89.8</v>
       </c>
       <c r="F6">
@@ -1064,20 +1303,20 @@
         <v>5100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="15">
         <v>0.01</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="23">
         <v>0.11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="23">
         <v>2.21</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="15">
         <v>100.1</v>
       </c>
       <c r="F7">
@@ -1087,21 +1326,21 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="15">
         <v>0.01</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="23">
         <v>0.16</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="23">
         <v>9.18</v>
       </c>
-      <c r="E8" s="6">
-        <v>1276.4000000000001</v>
+      <c r="E8" s="15">
+        <v>999.9</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -1110,21 +1349,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B9">
-        <v>41.6</v>
-      </c>
-      <c r="C9">
-        <v>79.2</v>
-      </c>
-      <c r="D9">
-        <v>137.9</v>
-      </c>
-      <c r="E9">
-        <v>204.5</v>
+      <c r="B9" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="C9" s="23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D9" s="23">
+        <v>17.5</v>
+      </c>
+      <c r="E9" s="23">
+        <v>93.2</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1133,21 +1372,21 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
-        <v>52.2</v>
-      </c>
-      <c r="C10">
-        <v>134.1</v>
-      </c>
-      <c r="D10">
-        <v>158.6</v>
-      </c>
-      <c r="E10">
-        <v>196.2</v>
+      <c r="B10" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="C10" s="23">
+        <v>9.6</v>
+      </c>
+      <c r="D10" s="23">
+        <v>111.2</v>
+      </c>
+      <c r="E10" s="23">
+        <v>129.80000000000001</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1156,21 +1395,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B11">
-        <v>52.2</v>
-      </c>
-      <c r="C11">
-        <v>134.1</v>
-      </c>
-      <c r="D11">
-        <v>158.6</v>
-      </c>
-      <c r="E11">
-        <v>196.2</v>
+      <c r="B11" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="C11" s="23">
+        <v>9.6</v>
+      </c>
+      <c r="D11" s="23">
+        <v>111.2</v>
+      </c>
+      <c r="E11" s="23">
+        <v>129.80000000000001</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -1179,21 +1418,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B12">
-        <v>52.2</v>
-      </c>
-      <c r="C12">
-        <v>134.1</v>
-      </c>
-      <c r="D12">
-        <v>158.6</v>
-      </c>
-      <c r="E12">
-        <v>196.2</v>
+      <c r="B12" s="23">
+        <v>4.5</v>
+      </c>
+      <c r="C12" s="23">
+        <v>9.6</v>
+      </c>
+      <c r="D12" s="23">
+        <v>111.2</v>
+      </c>
+      <c r="E12" s="23">
+        <v>129.80000000000001</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -1202,20 +1441,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="15">
         <v>5.6</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="15">
         <v>10.3</v>
       </c>
-      <c r="D13" s="6">
+      <c r="D13" s="15">
         <v>306</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="15">
         <v>796</v>
       </c>
       <c r="F13">
@@ -1225,20 +1464,20 @@
         <v>5.0000000000000002E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="23">
         <v>2.9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="23">
         <v>5.5</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="23">
         <v>237</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="15">
         <v>585</v>
       </c>
       <c r="F14">
@@ -1252,4 +1491,351 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FB1C36-AE11-4E58-8FC7-3F79F5576AB8}">
+  <dimension ref="A1:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="26">
+        <v>100</v>
+      </c>
+      <c r="C2" s="27">
+        <v>100</v>
+      </c>
+      <c r="D2" s="28">
+        <v>25</v>
+      </c>
+      <c r="E2" s="27">
+        <v>10</v>
+      </c>
+      <c r="F2" s="27">
+        <v>0</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="26">
+        <v>100</v>
+      </c>
+      <c r="C3" s="27">
+        <v>100</v>
+      </c>
+      <c r="D3" s="28">
+        <v>25</v>
+      </c>
+      <c r="E3" s="27">
+        <v>10</v>
+      </c>
+      <c r="F3" s="27">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="27">
+        <v>200</v>
+      </c>
+      <c r="C4" s="29">
+        <v>200</v>
+      </c>
+      <c r="D4" s="30">
+        <v>25</v>
+      </c>
+      <c r="E4" s="27">
+        <v>15</v>
+      </c>
+      <c r="F4" s="27">
+        <v>0</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="26">
+        <v>100</v>
+      </c>
+      <c r="C5" s="27">
+        <v>100</v>
+      </c>
+      <c r="D5" s="28">
+        <v>25</v>
+      </c>
+      <c r="E5" s="27">
+        <v>10</v>
+      </c>
+      <c r="F5" s="27">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="27">
+        <v>100</v>
+      </c>
+      <c r="C6" s="29">
+        <v>100</v>
+      </c>
+      <c r="D6" s="31">
+        <v>25</v>
+      </c>
+      <c r="E6" s="32">
+        <v>2</v>
+      </c>
+      <c r="F6" s="27">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="27">
+        <v>200</v>
+      </c>
+      <c r="C7" s="26">
+        <v>100</v>
+      </c>
+      <c r="D7" s="27">
+        <v>25</v>
+      </c>
+      <c r="E7" s="32">
+        <v>10</v>
+      </c>
+      <c r="F7" s="27">
+        <v>0</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="27">
+        <v>250</v>
+      </c>
+      <c r="C8" s="27">
+        <v>400</v>
+      </c>
+      <c r="D8" s="27">
+        <v>25</v>
+      </c>
+      <c r="E8" s="27">
+        <v>5</v>
+      </c>
+      <c r="F8" s="27">
+        <v>0</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="29">
+        <v>50</v>
+      </c>
+      <c r="C9" s="33">
+        <v>20</v>
+      </c>
+      <c r="D9" s="30">
+        <v>75</v>
+      </c>
+      <c r="E9" s="32">
+        <v>6</v>
+      </c>
+      <c r="F9" s="27">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="27">
+        <v>30</v>
+      </c>
+      <c r="C10" s="27">
+        <v>10</v>
+      </c>
+      <c r="D10" s="30">
+        <v>1</v>
+      </c>
+      <c r="E10" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F10" s="27">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="27">
+        <v>30</v>
+      </c>
+      <c r="C11" s="27">
+        <v>10</v>
+      </c>
+      <c r="D11" s="30">
+        <v>1</v>
+      </c>
+      <c r="E11" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F11" s="27">
+        <v>0</v>
+      </c>
+      <c r="G11" s="18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="27">
+        <v>30</v>
+      </c>
+      <c r="C12" s="27">
+        <v>10</v>
+      </c>
+      <c r="D12" s="30">
+        <v>1</v>
+      </c>
+      <c r="E12" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="F12" s="27">
+        <v>0</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="27">
+        <v>200</v>
+      </c>
+      <c r="C13" s="27">
+        <v>100</v>
+      </c>
+      <c r="D13" s="27">
+        <v>20</v>
+      </c>
+      <c r="E13" s="27">
+        <v>10</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="27">
+        <v>200</v>
+      </c>
+      <c r="C14" s="27">
+        <v>100</v>
+      </c>
+      <c r="D14" s="27">
+        <v>25</v>
+      </c>
+      <c r="E14" s="27">
+        <v>10</v>
+      </c>
+      <c r="F14" s="27">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>